--- a/set_transformer/classification_model/predictions_Deepset.xlsx
+++ b/set_transformer/classification_model/predictions_Deepset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickdharma/Desktop/university/卒業課題/my_models/set_transformer/classification_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE890FF-F54F-364E-8A84-CDD2475449B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E0D247-6C89-BC44-9B12-9903789FEC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="-6300" windowWidth="20980" windowHeight="24400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pred1" sheetId="1" r:id="rId1"/>
@@ -69106,11 +69106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4377575F-F54F-8845-995A-B2F526941750}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -69521,7 +69520,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>1080</v>
       </c>
@@ -69534,11 +69533,13 @@
       <c r="D20" s="3">
         <v>-4</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>1107</v>
       </c>
@@ -69551,11 +69552,13 @@
       <c r="D21" s="3">
         <v>-4</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>7</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>1109</v>
       </c>
@@ -69572,7 +69575,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>1196</v>
       </c>
@@ -69589,7 +69592,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>1252</v>
       </c>
@@ -69627,7 +69630,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>1490</v>
       </c>
@@ -69644,7 +69647,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>1500</v>
       </c>
@@ -69661,7 +69664,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>1503</v>
       </c>
@@ -69678,7 +69681,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>1504</v>
       </c>
@@ -69695,7 +69698,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>1631</v>
       </c>
@@ -69712,7 +69715,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>1675</v>
       </c>
@@ -69729,7 +69732,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>1702</v>
       </c>
@@ -69746,7 +69749,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>1822</v>
       </c>
@@ -69763,7 +69766,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>1866</v>
       </c>
@@ -69780,7 +69783,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>1878</v>
       </c>
@@ -69797,7 +69800,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>1980</v>
       </c>
@@ -69835,7 +69838,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>2018</v>
       </c>
@@ -69848,11 +69851,13 @@
       <c r="D38" s="3">
         <v>-4</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3">
+        <v>7</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>2035</v>
       </c>
@@ -69890,7 +69895,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>595</v>
       </c>
@@ -69928,7 +69933,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>1196</v>
       </c>
@@ -69945,7 +69950,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>1878</v>
       </c>
@@ -69984,13 +69989,7 @@
       <c r="G45" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G45" xr:uid="{4377575F-F54F-8845-995A-B2F526941750}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G45" xr:uid="{4377575F-F54F-8845-995A-B2F526941750}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -70000,8 +69999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4AA343-4E51-C741-8FC3-C44225C3E0F7}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C20" sqref="A1:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -70039,7 +70038,9 @@
       <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -70399,7 +70400,9 @@
       <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
